--- a/Data/Public_Channel.xlsx
+++ b/Data/Public_Channel.xlsx
@@ -35,49 +35,49 @@
     <t>Channel_Header</t>
   </si>
   <si>
-    <t>42c0G8chdf</t>
-  </si>
-  <si>
-    <t>kw6jvGrdCY</t>
-  </si>
-  <si>
-    <t>qgwcmHZwUS</t>
-  </si>
-  <si>
-    <t>K1JeaNyXLK</t>
-  </si>
-  <si>
-    <t>b9W9r01Ty9</t>
-  </si>
-  <si>
-    <t>xh7Ufvohyv</t>
-  </si>
-  <si>
-    <t>q1p4rByDUM</t>
-  </si>
-  <si>
-    <t>Uv06cAJIa4</t>
-  </si>
-  <si>
-    <t>5hXLeoLNb3</t>
-  </si>
-  <si>
-    <t>gbDGbBi4iy</t>
-  </si>
-  <si>
-    <t>70DmS9uYF9</t>
-  </si>
-  <si>
-    <t>7Np97zawbB</t>
-  </si>
-  <si>
-    <t>1HDHFClGY4</t>
-  </si>
-  <si>
-    <t>bYFMklGQjG</t>
-  </si>
-  <si>
-    <t>wOaKaZoGPD</t>
+    <t>2c0G8chdf</t>
+  </si>
+  <si>
+    <t>1JeaNyXLK</t>
+  </si>
+  <si>
+    <t>1p4rByDUM</t>
+  </si>
+  <si>
+    <t>bDGbBi4iy</t>
+  </si>
+  <si>
+    <t>HDHFClGY4</t>
+  </si>
+  <si>
+    <t>w6jvGrdCY</t>
+  </si>
+  <si>
+    <t>9W9r01Ty9</t>
+  </si>
+  <si>
+    <t>v06cAJIa4</t>
+  </si>
+  <si>
+    <t>0DmS9uYF9</t>
+  </si>
+  <si>
+    <t>YFMklGQjG</t>
+  </si>
+  <si>
+    <t>gwcmHZwUS</t>
+  </si>
+  <si>
+    <t>h7Ufvohyv</t>
+  </si>
+  <si>
+    <t>hXLeoLNb3</t>
+  </si>
+  <si>
+    <t>Np97zawbB</t>
+  </si>
+  <si>
+    <t>OaKaZoGPD</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,56 +458,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
